--- a/biology/Botanique/Liste_d'Églantiers/Liste_d'Églantiers.xlsx
+++ b/biology/Botanique/Liste_d'Églantiers/Liste_d'Églantiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%89glantiers</t>
+          <t>Liste_d'Églantiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,48 +490,50 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Le nom églantier désigne les espèces du genre Rosa à l'état sauvage, qui ont généralement des fleurs simples. Il s'applique en particulier à Rosa canina. Par opposition, le terme « rosier » désigne les cultivars, c'est-à-dire les sélections d'églantiers mises en place par les horticulteurs[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Le nom églantier désigne les espèces du genre Rosa à l'état sauvage, qui ont généralement des fleurs simples. Il s'applique en particulier à Rosa canina. Par opposition, le terme « rosier » désigne les cultivars, c'est-à-dire les sélections d'églantiers mises en place par les horticulteurs.
 En français, les espèces suivantes sont appelées « Églantier » (nom recommandé ou typique) :
-Églantier d'Achar, Rosa acharii[2] Billb. ;
-Églantier de Chablais  Rosa caballicensis Puget ex Déségl[3].
-Églantier des sapins, Rosa abietina Gren. ex H.Christ[4] ;
-Églantier agreste, Rosa agrestis Savi (sect. Caninae)[5] ;
-Églantier des champs, Rosa arvensis Huds. (sect. Synstylae)[6] ;
-Églantier bleu cendré, Rosa caesia[7] Sm. ;
-Églantier des chiens, Rosa canina L. (sect. Caninae)[8];
-Églantier à feuilles coriaces, Rosa coriifolia[9] Fr. ;
-Églantier en corymbe, Rosa corymbifera Borkh. (sect. Caninae)[10] ;
-Églantier de Déséglise, Rosa deseglisei Boreau[11] ;
-Églantier commun, Rosa dumalis Bechst. (sect. Caninae)[12] ;
-Églantier à feuilles rougeâtres ou Églantier glauque, Rosa glauca Pourr. (syn. R. ferruginea Vill., R. rubrifolia Vill.) (section Caninae)[13],[14] ;
-Grand Églantier, Rosa majalis Herrm. (syn. R. cinnamomea auct. non L.)[15] ;
-Églantier à petites fleurs,	Rosa micrantha Borrer ex Sm. (section Caninae)[16] ;
-Églantier mou, Rosa mollis[17] Sm. ;
-Églantier des montagnes Rosa montana Chaix (section Caninae)[18] ;
-Églantier musqué, Rosa moschata Herrm. (sect. Synstylae)[19] ;
-Églantier multiflore, Rosa multiflora Thunb. (sect. Synstylae)[20] ;
-Églantier à folioles obtuses, Rosa obtusifolia Desv. (sect. Caninae)[21] ;
-Églantier à fruits pendants ou Églantier des Alpes, Rosa pendulina L. (sect. Cinnamomae)[22] ;
-Églantier pimprenelle Rosa pimpinellifolia L. (syn. R. spinosissima L.) (sect. Pimpinellifoliae)[23] ;
-Églantier de Pouzin, Rosa pouzinii Tratt[24],[25];
-Églantier couleur de rouille ou Églantier de la Reine Elisabeth, Rosa rubiginosa L. (sect. Caninae)[26] ;
-Églantier sempervirent, Rosa sempervirens L. (sect. Synstylae)[27] ;
-Églantier de Serafini, Rosa seraphini (uk)[28] Viv. ;
-Églantier de la Prairie, Rosa setigera Michx. (sect. Synstylae)[29] ;
-Églantier de Sherard, Rosa sherardii Davies (sect. Caninae)[30] ;
-Églantier de Sicile ou Églantier nain, Rosa sicula Tratt. (sect. Caninae)[31] ;
-Églantier rude, Rosa squarrosa (pt) (Rau) Boreau[32] ;
-Églantier tomenteux, Rosa tomentosa Sm. (sect. Caninae)[33] ;
-Églantier de Jundzill, Rosa trachyphylla Rau[34] ;
-Églantier velu ou Églantier-hérisson, Rosa villosa L. (sect. Caninae)[35] ;
-Églantier alpin ou Églantier alpicole, Rosa villosa subsp. alpicola (Rouy) Rouy &amp; E.G.Camus (syn. Rosa alpicola Rouy) (sect. Caninae)[36],[37] ;
-Églantier de Virginie, Rosa virginiana Herrm. (sect. Carolinae)[38]
-Églantier des Vosges, Rosa vosagiaca Desp. (sect. Caninae)[39] ;
-Églantier de Millau, Rosa ×amiliavensis H.J.Coste &amp; Simon[40] ;
-Églantier de l'Aveyron, Rosa ×caviniacensis Ozanon[41] ou Rosa ×aveyronensis H.Coste[42] ;
-Églantier d'Irlande, Rosa ×hibernica Templeton (sect. Caninae)[43].</t>
+Églantier d'Achar, Rosa acharii Billb. ;
+Églantier de Chablais  Rosa caballicensis Puget ex Déségl.
+Églantier des sapins, Rosa abietina Gren. ex H.Christ ;
+Églantier agreste, Rosa agrestis Savi (sect. Caninae) ;
+Églantier des champs, Rosa arvensis Huds. (sect. Synstylae) ;
+Églantier bleu cendré, Rosa caesia Sm. ;
+Églantier des chiens, Rosa canina L. (sect. Caninae);
+Églantier à feuilles coriaces, Rosa coriifolia Fr. ;
+Églantier en corymbe, Rosa corymbifera Borkh. (sect. Caninae) ;
+Églantier de Déséglise, Rosa deseglisei Boreau ;
+Églantier commun, Rosa dumalis Bechst. (sect. Caninae) ;
+Églantier à feuilles rougeâtres ou Églantier glauque, Rosa glauca Pourr. (syn. R. ferruginea Vill., R. rubrifolia Vill.) (section Caninae), ;
+Grand Églantier, Rosa majalis Herrm. (syn. R. cinnamomea auct. non L.) ;
+Églantier à petites fleurs,	Rosa micrantha Borrer ex Sm. (section Caninae) ;
+Églantier mou, Rosa mollis Sm. ;
+Églantier des montagnes Rosa montana Chaix (section Caninae) ;
+Églantier musqué, Rosa moschata Herrm. (sect. Synstylae) ;
+Églantier multiflore, Rosa multiflora Thunb. (sect. Synstylae) ;
+Églantier à folioles obtuses, Rosa obtusifolia Desv. (sect. Caninae) ;
+Églantier à fruits pendants ou Églantier des Alpes, Rosa pendulina L. (sect. Cinnamomae) ;
+Églantier pimprenelle Rosa pimpinellifolia L. (syn. R. spinosissima L.) (sect. Pimpinellifoliae) ;
+Églantier de Pouzin, Rosa pouzinii Tratt,;
+Églantier couleur de rouille ou Églantier de la Reine Elisabeth, Rosa rubiginosa L. (sect. Caninae) ;
+Églantier sempervirent, Rosa sempervirens L. (sect. Synstylae) ;
+Églantier de Serafini, Rosa seraphini (uk) Viv. ;
+Églantier de la Prairie, Rosa setigera Michx. (sect. Synstylae) ;
+Églantier de Sherard, Rosa sherardii Davies (sect. Caninae) ;
+Églantier de Sicile ou Églantier nain, Rosa sicula Tratt. (sect. Caninae) ;
+Églantier rude, Rosa squarrosa (pt) (Rau) Boreau ;
+Églantier tomenteux, Rosa tomentosa Sm. (sect. Caninae) ;
+Églantier de Jundzill, Rosa trachyphylla Rau ;
+Églantier velu ou Églantier-hérisson, Rosa villosa L. (sect. Caninae) ;
+Églantier alpin ou Églantier alpicole, Rosa villosa subsp. alpicola (Rouy) Rouy &amp; E.G.Camus (syn. Rosa alpicola Rouy) (sect. Caninae), ;
+Églantier de Virginie, Rosa virginiana Herrm. (sect. Carolinae)
+Églantier des Vosges, Rosa vosagiaca Desp. (sect. Caninae) ;
+Églantier de Millau, Rosa ×amiliavensis H.J.Coste &amp; Simon ;
+Églantier de l'Aveyron, Rosa ×caviniacensis Ozanon ou Rosa ×aveyronensis H.Coste ;
+Églantier d'Irlande, Rosa ×hibernica Templeton (sect. Caninae).</t>
         </is>
       </c>
     </row>
